--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Sstr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Sstr4.xlsx
@@ -537,13 +537,13 @@
         <v>0.217038</v>
       </c>
       <c r="H2">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.778857666666667</v>
+        <v>5.236270666666667</v>
       </c>
       <c r="N2">
-        <v>17.336573</v>
+        <v>15.708812</v>
       </c>
       <c r="O2">
-        <v>0.8019263822052977</v>
+        <v>0.7569518102780146</v>
       </c>
       <c r="P2">
-        <v>0.8019263822052978</v>
+        <v>0.7569518102780146</v>
       </c>
       <c r="Q2">
-        <v>1.254231710258</v>
+        <v>1.136469712952</v>
       </c>
       <c r="R2">
-        <v>11.288085392322</v>
+        <v>10.228227416568</v>
       </c>
       <c r="S2">
-        <v>0.5649525111452034</v>
+        <v>0.6488918627457517</v>
       </c>
       <c r="T2">
-        <v>0.5649525111452035</v>
+        <v>0.6488918627457517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>0.217038</v>
       </c>
       <c r="H3">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I3">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J3">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.299075</v>
       </c>
       <c r="O3">
-        <v>0.1526031286214376</v>
+        <v>0.1589706970516256</v>
       </c>
       <c r="P3">
-        <v>0.1526031286214376</v>
+        <v>0.1589706970516256</v>
       </c>
       <c r="Q3">
-        <v>0.23867487995</v>
+        <v>0.2386748799499999</v>
       </c>
       <c r="R3">
         <v>2.14807391955</v>
       </c>
       <c r="S3">
-        <v>0.1075080239737324</v>
+        <v>0.1362765638857948</v>
       </c>
       <c r="T3">
-        <v>0.1075080239737324</v>
+        <v>0.1362765638857948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>0.217038</v>
       </c>
       <c r="H4">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I4">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J4">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3276703333333333</v>
+        <v>0.5816123333333333</v>
       </c>
       <c r="N4">
-        <v>0.9830110000000001</v>
+        <v>1.744837</v>
       </c>
       <c r="O4">
-        <v>0.04547048917326463</v>
+        <v>0.0840774926703598</v>
       </c>
       <c r="P4">
-        <v>0.04547048917326463</v>
+        <v>0.0840774926703598</v>
       </c>
       <c r="Q4">
-        <v>0.07111691380600002</v>
+        <v>0.126231977602</v>
       </c>
       <c r="R4">
-        <v>0.6400522242540001</v>
+        <v>1.136087798418</v>
       </c>
       <c r="S4">
-        <v>0.03203369737106391</v>
+        <v>0.07207486671288121</v>
       </c>
       <c r="T4">
-        <v>0.03203369737106392</v>
+        <v>0.07207486671288121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09103833333333333</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H5">
-        <v>0.273115</v>
+        <v>0.10843</v>
       </c>
       <c r="I5">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J5">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.778857666666667</v>
+        <v>5.236270666666667</v>
       </c>
       <c r="N5">
-        <v>17.336573</v>
+        <v>15.708812</v>
       </c>
       <c r="O5">
-        <v>0.8019263822052977</v>
+        <v>0.7569518102780146</v>
       </c>
       <c r="P5">
-        <v>0.8019263822052978</v>
+        <v>0.7569518102780146</v>
       </c>
       <c r="Q5">
-        <v>0.5260975705438889</v>
+        <v>0.1892562761288889</v>
       </c>
       <c r="R5">
-        <v>4.734878134895</v>
+        <v>1.70330648516</v>
       </c>
       <c r="S5">
-        <v>0.2369738710600942</v>
+        <v>0.1080599475322629</v>
       </c>
       <c r="T5">
-        <v>0.2369738710600943</v>
+        <v>0.1080599475322629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.09103833333333333</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H6">
-        <v>0.273115</v>
+        <v>0.10843</v>
       </c>
       <c r="I6">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J6">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.299075</v>
       </c>
       <c r="O6">
-        <v>0.1526031286214376</v>
+        <v>0.1589706970516256</v>
       </c>
       <c r="P6">
-        <v>0.1526031286214376</v>
+        <v>0.1589706970516256</v>
       </c>
       <c r="Q6">
-        <v>0.1001140965138889</v>
+        <v>0.03974652247222222</v>
       </c>
       <c r="R6">
-        <v>0.9010268686249999</v>
+        <v>0.35771870225</v>
       </c>
       <c r="S6">
-        <v>0.04509510464770519</v>
+        <v>0.02269413316583077</v>
       </c>
       <c r="T6">
-        <v>0.04509510464770519</v>
+        <v>0.02269413316583077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.09103833333333333</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H7">
-        <v>0.273115</v>
+        <v>0.10843</v>
       </c>
       <c r="I7">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J7">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3276703333333333</v>
+        <v>0.5816123333333333</v>
       </c>
       <c r="N7">
-        <v>0.9830110000000001</v>
+        <v>1.744837</v>
       </c>
       <c r="O7">
-        <v>0.04547048917326463</v>
+        <v>0.0840774926703598</v>
       </c>
       <c r="P7">
-        <v>0.04547048917326463</v>
+        <v>0.0840774926703598</v>
       </c>
       <c r="Q7">
-        <v>0.02983056102944445</v>
+        <v>0.02102140843444444</v>
       </c>
       <c r="R7">
-        <v>0.268475049265</v>
+        <v>0.18919267591</v>
       </c>
       <c r="S7">
-        <v>0.01343679180220072</v>
+        <v>0.01200262595747858</v>
       </c>
       <c r="T7">
-        <v>0.01343679180220072</v>
+        <v>0.01200262595747858</v>
       </c>
     </row>
   </sheetData>
